--- a/src/Calculos.xlsx
+++ b/src/Calculos.xlsx
@@ -384,21 +384,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -409,16 +409,19 @@
         <v>-4000000</v>
       </c>
       <c r="D1" s="1">
+        <v>-5600000</v>
+      </c>
+      <c r="E1" s="1">
         <v>3000000</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6000000</v>
       </c>
       <c r="F1" s="1">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -430,19 +433,23 @@
         <v>4410000</v>
       </c>
       <c r="D2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E2" s="1">
         <v>-3000000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>-400000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>-1400000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -453,7 +460,7 @@
         <v>5000000</v>
       </c>
       <c r="D4" s="1">
-        <v>-5000000</v>
+        <v>5000000</v>
       </c>
       <c r="E4" s="1">
         <v>-5000000</v>
@@ -461,8 +468,11 @@
       <c r="F4" s="1">
         <v>-5000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>-5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -476,13 +486,16 @@
         <v>500000</v>
       </c>
       <c r="E5" s="1">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="F5" s="1">
         <v>700000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -493,16 +506,19 @@
         <v>300000</v>
       </c>
       <c r="D6" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E6" s="1">
         <v>3000000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>300000</v>
       </c>
       <c r="F6" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -521,11 +537,15 @@
       <c r="F7" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -539,18 +559,22 @@
       </c>
       <c r="D9" s="1">
         <f>D1+D4</f>
-        <v>-2000000</v>
+        <v>-600000</v>
       </c>
       <c r="E9" s="1">
         <f>E1+E4</f>
-        <v>1000000</v>
+        <v>-2000000</v>
       </c>
       <c r="F9" s="1">
         <f>F1+F4</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <f>G1+G4</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -564,21 +588,26 @@
       </c>
       <c r="D10" s="1">
         <f>D2+D9</f>
-        <v>-5000000</v>
+        <v>400000</v>
       </c>
       <c r="E10" s="1">
         <f>E2+E9</f>
-        <v>600000</v>
+        <v>-5000000</v>
       </c>
       <c r="F10" s="1">
         <f>F2+F9</f>
+        <v>600000</v>
+      </c>
+      <c r="G10" s="1">
+        <f>G2+G9</f>
         <v>-400000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -591,19 +620,23 @@
         <v>4410000</v>
       </c>
       <c r="D12" s="1">
-        <f>IF(D9&lt;0,IF(D2&lt;&gt;0,D2,0),D10)</f>
-        <v>-3000000</v>
+        <f>IF(D9&gt;0,IF(D2&lt;&gt;0,D2,0),D10)</f>
+        <v>400000</v>
       </c>
       <c r="E12" s="1">
         <f>IF(E9&lt;0,IF(E2&lt;&gt;0,E2,0),E10)</f>
-        <v>600000</v>
+        <v>-3000000</v>
       </c>
       <c r="F12" s="1">
         <f>IF(F9&lt;0,IF(F2&lt;&gt;0,F2,0),F10)</f>
+        <v>600000</v>
+      </c>
+      <c r="G12" s="1">
+        <f>IF(G9&lt;0,IF(G2&lt;&gt;0,G2,0),G10)</f>
         <v>-400000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -612,12 +645,12 @@
         <v>-690000</v>
       </c>
       <c r="C13" s="1">
-        <f>IF(ABS(C12)&gt;C5,C12,0)</f>
+        <f>IF(C12&gt;0,IF(ABS(C12)&gt;ABS(C6),C12,0),IF(ABS(C12)&gt;ABS(C5),C12,0))</f>
         <v>4410000</v>
       </c>
       <c r="D13" s="1">
-        <f>IF(D12&lt;0,IF(ABS(D12)&gt;ABS(D6),D12,0),IF(ABS(D12)&gt;ABS(D5),D12,0))</f>
-        <v>0</v>
+        <f>IF(D12&gt;0,IF(ABS(D12)&gt;ABS(D6),D12,0),IF(ABS(D12)&gt;ABS(D5),D12,0))</f>
+        <v>400000</v>
       </c>
       <c r="E13" s="1">
         <f>IF(E12&lt;0,IF(ABS(E12)&gt;ABS(E6),E12,0),IF(ABS(E12)&gt;ABS(E5),E12,0))</f>
@@ -625,6 +658,10 @@
       </c>
       <c r="F13" s="1">
         <f>IF(F12&lt;0,IF(ABS(F12)&gt;ABS(F6),F12,0),IF(ABS(F12)&gt;ABS(F5),F12,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f>IF(G12&lt;0,IF(ABS(G12)&gt;ABS(G6),G12,0),IF(ABS(G12)&gt;ABS(G5),G12,0))</f>
         <v>-400000</v>
       </c>
     </row>
